--- a/note.T/07_jQuery/0315.model2ex.xlsx
+++ b/note.T/07_jQuery/0315.model2ex.xlsx
@@ -1335,6 +1335,27 @@
     <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1357,27 +1378,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1791,41 +1791,41 @@
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
@@ -1870,32 +1870,32 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="62" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59" t="s">
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="56"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="22"/>
       <c r="E7" s="13">
         <v>27</v>
@@ -1995,7 +1995,7 @@
     <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="56" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="10"/>
@@ -2016,7 +2016,7 @@
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="60"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="6"/>
@@ -2054,7 +2054,7 @@
     <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="59" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="10"/>
@@ -2075,7 +2075,7 @@
     <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="52"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="6"/>
@@ -2113,7 +2113,7 @@
     <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="56" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="10"/>
@@ -2134,7 +2134,7 @@
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="60"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="10"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
@@ -2193,7 +2193,7 @@
     <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="57" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="10"/>
@@ -2214,7 +2214,7 @@
     <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="62"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="10"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2252,7 +2252,7 @@
     <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="57" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="10"/>
@@ -2273,7 +2273,7 @@
     <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="62"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="10"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -2311,7 +2311,7 @@
     <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="57" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="10"/>
@@ -2332,7 +2332,7 @@
     <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="62"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="10"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2370,7 +2370,7 @@
     <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="57" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="10"/>
@@ -2391,7 +2391,7 @@
     <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="62"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -2429,7 +2429,7 @@
     <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="57" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="10"/>
@@ -2450,7 +2450,7 @@
     <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="62"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="10"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2488,7 +2488,7 @@
     <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="57" t="s">
         <v>84</v>
       </c>
       <c r="D36" s="10"/>
@@ -2509,7 +2509,7 @@
     <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="62"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="10"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -2568,7 +2568,7 @@
     <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="58" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="10"/>
@@ -2589,7 +2589,7 @@
     <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="63"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="10"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2627,7 +2627,7 @@
     <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="10"/>
@@ -2648,7 +2648,7 @@
     <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="63"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="10"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -2686,7 +2686,7 @@
     <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="58" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="10"/>
@@ -2707,7 +2707,7 @@
     <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="63"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="10"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -2745,7 +2745,7 @@
     <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="58" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="10"/>
@@ -2766,7 +2766,7 @@
     <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="63"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -2825,7 +2825,7 @@
     <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="10"/>
@@ -2846,7 +2846,7 @@
     <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="61"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -2884,7 +2884,7 @@
     <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="61" t="s">
+      <c r="C56" s="53" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="10"/>
@@ -2905,7 +2905,7 @@
     <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="61"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="10"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -2943,7 +2943,7 @@
     <row r="59" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="61" t="s">
+      <c r="C59" s="53" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="10"/>
@@ -2964,7 +2964,7 @@
     <row r="60" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="61"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3002,7 +3002,7 @@
     <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="61" t="s">
+      <c r="C62" s="53" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="10"/>
@@ -3023,7 +3023,7 @@
     <row r="63" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="61"/>
+      <c r="C63" s="53"/>
       <c r="D63" s="10"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -3061,7 +3061,7 @@
     <row r="65" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="53" t="s">
         <v>36</v>
       </c>
       <c r="D65" s="10"/>
@@ -3082,7 +3082,7 @@
     <row r="66" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="61"/>
+      <c r="C66" s="53"/>
       <c r="D66" s="10"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -3120,7 +3120,7 @@
     <row r="68" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="65" t="s">
+      <c r="C68" s="54" t="s">
         <v>83</v>
       </c>
       <c r="D68" s="7"/>
@@ -3141,7 +3141,7 @@
     <row r="69" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="65"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3201,18 +3201,18 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
       <c r="H72" s="6"/>
       <c r="I72" s="38" t="s">
         <v>87</v>
       </c>
       <c r="J72" s="38"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="64" t="s">
+      <c r="L72" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="M72" s="64"/>
+      <c r="M72" s="52"/>
       <c r="N72" s="40"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -3238,13 +3238,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -3257,12 +3256,13 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="F72:G72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3501,7 +3501,7 @@
   <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3955,6 +3955,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
@@ -3971,7 +3972,6 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
